--- a/exploration/TeamsCode_Registration_Data/MIHS/Spring_2018_MIHS_Registration.xlsx
+++ b/exploration/TeamsCode_Registration_Data/MIHS/Spring_2018_MIHS_Registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlanBi/Desktop/App Development/Python/PythonSelfStudy/exploration/TeamsCode_Registration_Data/MIHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F91095-4D77-424C-A008-6E29FC957577}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2EF83-657C-5644-A536-7BD8828CA950}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>Bellarmine Preparatory School</t>
   </si>
   <si>
-    <t>Highland Middle school</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>School</t>
+  </si>
+  <si>
+    <t>Highland Middle School</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -609,16 +609,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
